--- a/data/trans_dic/P6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha experimentado cambio de convivientes en sus viviendas</t>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,08</t>
+          <t>4,33; 12,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,84</t>
+          <t>6,41; 15,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,81</t>
+          <t>9,13; 20,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 18,85</t>
+          <t>10,47; 23,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,99</t>
+          <t>5,68; 13,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 15,51</t>
+          <t>7,18; 16,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 19,55</t>
+          <t>12,13; 22,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 21,77</t>
+          <t>15,24; 26,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,22</t>
+          <t>6,19; 11,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 13,65</t>
+          <t>8,05; 14,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,69</t>
+          <t>11,96; 19,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,31</t>
+          <t>14,61; 23,01</t>
         </is>
       </c>
     </row>
@@ -796,42 +797,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +842,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 9,25</t>
+          <t>1,78; 9,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 22,7</t>
+          <t>2,31; 10,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,72</t>
+          <t>4,3; 14,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,62</t>
+          <t>7,94; 22,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,75</t>
+          <t>4,74; 12,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,3</t>
+          <t>5,55; 14,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 21,29</t>
+          <t>10,58; 21,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 26,31</t>
+          <t>13,2; 24,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,27</t>
+          <t>4,22; 10,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,86</t>
+          <t>5,15; 11,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 16,83</t>
+          <t>8,82; 16,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,67</t>
+          <t>12,26; 21,28</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 18,16</t>
+          <t>0,0; 20,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 20,26</t>
+          <t>0,0; 21,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 30,16</t>
+          <t>2,96; 34,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 35,86</t>
+          <t>4,76; 42,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 17,98</t>
+          <t>0,0; 18,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 19,47</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 27,16</t>
+          <t>5,89; 30,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,13; 31,57</t>
+          <t>12,93; 42,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,34</t>
+          <t>1,28; 13,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 16,41</t>
+          <t>1,29; 13,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 24,25</t>
+          <t>6,61; 26,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 30,15</t>
+          <t>11,15; 35,74</t>
         </is>
       </c>
     </row>
@@ -1076,52 +1077,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1132,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,21</t>
+          <t>3,84; 9,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,66</t>
+          <t>5,05; 11,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,94</t>
+          <t>8,04; 16,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,61</t>
+          <t>11,14; 20,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,44</t>
+          <t>5,93; 11,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 13,14</t>
+          <t>7,15; 13,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,41</t>
+          <t>12,44; 19,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 22,0</t>
+          <t>16,41; 24,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,68</t>
+          <t>5,76; 9,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,3</t>
+          <t>7,03; 11,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,3</t>
+          <t>11,61; 16,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 19,37</t>
+          <t>14,64; 20,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28437</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44974</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>51886</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61361</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40676</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>57017</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70885</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84184</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>69114</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101991</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122771</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>145545</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15848; 47125</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27558; 67835</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33436; 74766</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39873; 87708</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24715; 59386</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36541; 82874</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51065; 95682</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62098; 108619</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49572; 93986</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75582; 136724</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>94148; 152987</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>115187; 181426</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14135</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20130</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27525</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45271</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29301</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40507</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52045</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61705</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43436</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60636</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>79570</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>106976</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5412; 28744</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8317; 38915</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13701; 47296</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25627; 72785</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16599; 45401</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23612; 62185</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35803; 74220</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44223; 82564</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27653; 68125</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40385; 89941</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>57914; 109366</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>80604; 139933</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10920</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12044</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20560</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8313</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9908</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22963</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36243</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16986</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21470</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2355; 27666</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4078; 36249</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15043</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17137</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4804; 25068</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10672; 35244</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2138; 23032</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2612; 28082</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10658; 42348</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18740; 60090</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45785</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69147</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>90330</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>122314</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75077</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>103388</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>134974</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>166449</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>120862</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>172535</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>225304</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>288764</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28982; 69779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44977; 99938</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61397; 124043</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>87930; 164651</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51481; 100573</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>73999; 139350</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>104649; 167170</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>135391; 204067</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>93526; 156341</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>135348; 217198</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>186346; 270335</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>236305; 338489</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>